--- a/封口体アンドン要望アドレス_250819.xlsx
+++ b/封口体アンドン要望アドレス_250819.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010065\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1010821\Desktop\project\12-fukotai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE9736-FCD0-47F7-A8FB-4BC77189D429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD50F2F5-07E7-432D-875D-4C0F07C847E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AF9CA11-BCF8-4BC7-8E8E-ACC26D6A2D4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4AF9CA11-BCF8-4BC7-8E8E-ACC26D6A2D4B}"/>
   </bookViews>
   <sheets>
     <sheet name="アンドン上位用アドレス" sheetId="10" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>◆１，２ライン封口体工程アンドンアドレスマップ</t>
     <rPh sb="7" eb="12">
@@ -466,12 +466,21 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>異常　赤背景➕黒文字</t>
+  </si>
+  <si>
+    <t>交換、予報　黄色背景➕黒文字</t>
+  </si>
+  <si>
+    <t>その他　黒背景➕白文字です。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1018,22 +1027,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1048,25 +1063,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,8 +1640,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1247775" y="11439525"/>
-          <a:ext cx="6373114" cy="2086266"/>
+          <a:off x="1222375" y="10852150"/>
+          <a:ext cx="6284214" cy="2000541"/>
           <a:chOff x="1247775" y="11439525"/>
           <a:chExt cx="6373114" cy="2086266"/>
         </a:xfrm>
@@ -1796,8 +1805,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10067925" y="3619500"/>
-          <a:ext cx="457201" cy="581024"/>
+          <a:off x="9747251" y="3502026"/>
+          <a:ext cx="434182" cy="563561"/>
           <a:chOff x="10067925" y="3619500"/>
           <a:chExt cx="457201" cy="581024"/>
         </a:xfrm>
@@ -2657,8 +2666,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="8648700"/>
-          <a:ext cx="11924225" cy="8392624"/>
+          <a:off x="0" y="8362950"/>
+          <a:ext cx="11532907" cy="8114812"/>
           <a:chOff x="0" y="8648700"/>
           <a:chExt cx="11924225" cy="8392624"/>
         </a:xfrm>
@@ -2799,8 +2808,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6353175" y="4381500"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="6147595" y="4238625"/>
+          <a:ext cx="84137" cy="153988"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -2914,8 +2923,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6353175" y="4124325"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="6147595" y="3989388"/>
+          <a:ext cx="84137" cy="153987"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -3730,8 +3739,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6315075" y="10687050"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="6109495" y="10337800"/>
+          <a:ext cx="84137" cy="153988"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -4110,8 +4119,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6315075" y="12468225"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="6109495" y="12057063"/>
+          <a:ext cx="84137" cy="153988"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -5010,8 +5019,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1371600" y="4352925"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="1325563" y="4211638"/>
+          <a:ext cx="87313" cy="160337"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -5125,8 +5134,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1371600" y="4095750"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="1325563" y="3962401"/>
+          <a:ext cx="87313" cy="160337"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -6013,8 +6022,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1543050" y="4476750"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="1497013" y="4333875"/>
+          <a:ext cx="87313" cy="153988"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -6393,8 +6402,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1543050" y="5029200"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="1497013" y="4864101"/>
+          <a:ext cx="87313" cy="160337"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -7384,8 +7393,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1362075" y="2047875"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="1321595" y="1985963"/>
+          <a:ext cx="80168" cy="153988"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -7499,8 +7508,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1362075" y="1790700"/>
-          <a:ext cx="85725" cy="161925"/>
+          <a:off x="1321595" y="1736726"/>
+          <a:ext cx="80168" cy="153987"/>
           <a:chOff x="12353925" y="2857500"/>
           <a:chExt cx="66675" cy="257175"/>
         </a:xfrm>
@@ -8316,9 +8325,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8356,7 +8365,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8462,7 +8471,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8604,7 +8613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8617,47 +8626,47 @@
   </sheetPr>
   <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="2.875" customWidth="1"/>
+    <col min="3" max="3" width="2.83203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="9" width="3.375" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
-    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="4.58203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.58203125" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="16" width="14.875" customWidth="1"/>
-    <col min="19" max="19" width="17.625" customWidth="1"/>
-    <col min="20" max="20" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="17.58203125" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="19.5">
-      <c r="E3" s="46" t="s">
+    <row r="3" spans="1:16" ht="20" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
     </row>
-    <row r="4" spans="1:16" ht="19.5" thickBot="1"/>
-    <row r="5" spans="1:16">
+    <row r="4" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1"/>
       <c r="C5" s="10"/>
       <c r="D5" s="15"/>
@@ -8673,19 +8682,19 @@
       <c r="N5" s="15"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="17"/>
       <c r="D6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="45"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="34"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="17"/>
       <c r="L7" s="21" t="s">
         <v>4</v>
@@ -8695,14 +8704,14 @@
       </c>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" ht="19.5" thickBot="1">
+    <row r="8" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C8" s="17"/>
       <c r="L8" t="s">
         <v>6</v>
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="19.5" thickBot="1">
+    <row r="9" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C9" s="17"/>
       <c r="D9" s="19" t="s">
         <v>7</v>
@@ -8710,213 +8719,220 @@
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
       <c r="L9" s="22" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="10" spans="1:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C10" s="17"/>
       <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
-      <c r="L10" s="23" t="s">
-        <v>12</v>
-      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="37"/>
+      <c r="L10" s="23"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="11" spans="1:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="17"/>
       <c r="D11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="12" spans="1:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C12" s="17"/>
       <c r="D12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="L12" t="s">
+        <v>59</v>
+      </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="13" spans="1:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="17"/>
       <c r="D13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="L13" t="s">
+        <v>60</v>
+      </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="14" spans="1:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C14" s="17"/>
       <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="19.5" thickBot="1">
+    <row r="15" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="17"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="16" spans="1:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C16" s="17"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="41"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31" t="s">
+      <c r="L16" s="30"/>
+      <c r="M16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="32"/>
+      <c r="N16" s="31"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="17" spans="3:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C17" s="17"/>
       <c r="J17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="18" spans="3:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C18" s="17"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="33" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="35"/>
+      <c r="H18" s="45"/>
       <c r="J18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="19" spans="3:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C19" s="17"/>
       <c r="D19" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="H19" s="42"/>
       <c r="J19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="20" spans="3:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C20" s="17"/>
       <c r="D20" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="30"/>
+      <c r="H20" s="42"/>
       <c r="J20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="21" spans="3:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C21" s="17"/>
       <c r="D21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="H21" s="42"/>
       <c r="J21" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="3:16">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="17"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="3:16" ht="19.5" thickBot="1">
+    <row r="23" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C23" s="18"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -8931,8 +8947,8 @@
       <c r="N23" s="3"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="25" spans="3:16" ht="19.5" thickBot="1"/>
-    <row r="26" spans="3:16">
+    <row r="25" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="10"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -8947,22 +8963,22 @@
       <c r="N26" s="15"/>
       <c r="O26" s="16"/>
     </row>
-    <row r="27" spans="3:16" ht="24">
+    <row r="27" spans="3:16" ht="22.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="17"/>
       <c r="D27" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
       <c r="P27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="3:16">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="17"/>
       <c r="L28" s="21" t="s">
         <v>4</v>
@@ -8975,14 +8991,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="3:16" ht="19.5" thickBot="1">
+    <row r="29" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C29" s="17"/>
       <c r="L29" t="s">
         <v>6</v>
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="3:16" ht="19.5" thickBot="1">
+    <row r="30" spans="3:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C30" s="17"/>
       <c r="D30" s="19" t="s">
         <v>7</v>
@@ -8990,87 +9006,87 @@
       <c r="E30" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="F30" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="31"/>
       <c r="L30" s="22" t="s">
         <v>10</v>
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="31" spans="3:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C31" s="17"/>
       <c r="D31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
       <c r="L31" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="3:16" ht="20.25" thickTop="1" thickBot="1">
+    <row r="32" spans="3:16" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C32" s="17"/>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="33" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C33" s="17"/>
       <c r="D33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="42"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="34" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C34" s="17"/>
       <c r="D34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="37"/>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="35" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C35" s="17"/>
       <c r="D35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="3:21" ht="19.5" thickBot="1">
+    <row r="36" spans="3:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C36" s="17"/>
       <c r="O36" s="2"/>
       <c r="R36" s="1"/>
@@ -9078,34 +9094,34 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="37" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C37" s="17"/>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="39"/>
+      <c r="G37" s="41"/>
       <c r="J37" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="K37" s="31" t="s">
+      <c r="K37" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31" t="s">
+      <c r="L37" s="30"/>
+      <c r="M37" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="32"/>
+      <c r="N37" s="31"/>
       <c r="O37" s="2"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="38" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C38" s="17"/>
       <c r="F38" t="s">
         <v>38</v>
@@ -9113,129 +9129,129 @@
       <c r="J38" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30" t="s">
+      <c r="L38" s="42"/>
+      <c r="M38" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="N38" s="30"/>
+      <c r="N38" s="42"/>
       <c r="O38" s="2"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="39" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C39" s="17"/>
       <c r="D39" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="33" t="s">
+      <c r="F39" s="44"/>
+      <c r="G39" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="35"/>
+      <c r="H39" s="45"/>
       <c r="J39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="30" t="s">
+      <c r="K39" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30" t="s">
+      <c r="L39" s="42"/>
+      <c r="M39" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="N39" s="30"/>
+      <c r="N39" s="42"/>
       <c r="O39" s="2"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="40" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C40" s="17"/>
       <c r="D40" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="30" t="s">
+      <c r="E40" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30" t="s">
+      <c r="F40" s="42"/>
+      <c r="G40" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="30"/>
+      <c r="H40" s="42"/>
       <c r="J40" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="30" t="s">
+      <c r="K40" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30" t="s">
+      <c r="L40" s="42"/>
+      <c r="M40" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N40" s="30"/>
+      <c r="N40" s="42"/>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="41" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C41" s="17"/>
       <c r="D41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="E41" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30" t="s">
+      <c r="F41" s="42"/>
+      <c r="G41" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H41" s="30"/>
+      <c r="H41" s="42"/>
       <c r="J41" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K41" s="30" t="s">
+      <c r="K41" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30" t="s">
+      <c r="L41" s="42"/>
+      <c r="M41" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="N41" s="30"/>
+      <c r="N41" s="42"/>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="3:21" ht="20.25" thickTop="1" thickBot="1">
+    <row r="42" spans="3:21" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C42" s="17"/>
       <c r="D42" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="30" t="s">
+      <c r="E42" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30" t="s">
+      <c r="F42" s="42"/>
+      <c r="G42" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="H42" s="30"/>
+      <c r="H42" s="42"/>
       <c r="J42" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="30" t="s">
+      <c r="K42" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30" t="s">
+      <c r="L42" s="42"/>
+      <c r="M42" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N42" s="30"/>
+      <c r="N42" s="42"/>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="3:21">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="17"/>
       <c r="E43" t="s">
         <v>56</v>
@@ -9245,7 +9261,7 @@
       </c>
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="3:21" ht="19.5" thickBot="1">
+    <row r="44" spans="3:21" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C44" s="18"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -9260,32 +9276,41 @@
       <c r="N44" s="3"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="3:21">
+    <row r="45" spans="3:21" x14ac:dyDescent="0.55000000000000004">
       <c r="D45" s="1"/>
     </row>
-    <row r="47" spans="3:21">
+    <row r="47" spans="3:21" x14ac:dyDescent="0.55000000000000004">
       <c r="P47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
     <mergeCell ref="F30:J30"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
@@ -9300,33 +9325,24 @@
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="L27:O27"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9343,7 +9359,7 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9360,7 +9376,7 @@
       <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9377,7 +9393,7 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9394,7 +9410,7 @@
       <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9411,7 +9427,7 @@
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
